--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,12 +46,12 @@
     <t>returned</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -61,43 +61,64 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>beautiful</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>salad</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>glad</t>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>husband</t>
@@ -106,147 +127,117 @@
     <t>potatoes</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
     <t>pie</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>tea</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>pan</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>last</t>
+    <t>also</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
@@ -256,13 +247,16 @@
     <t>like</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>positive</t>
@@ -623,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,10 +625,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,13 +686,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3565891472868217</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -710,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -734,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -742,13 +736,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3434343434343434</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -760,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.9354838709677419</v>
+        <v>0.890625</v>
       </c>
       <c r="L4">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -784,21 +778,45 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>155</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,21 +828,21 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>0.855072463768116</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,21 +854,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8529411764705882</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L7">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="M7">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,21 +880,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8260869565217391</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -893,16 +911,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.8222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -914,21 +932,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7954545454545454</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -940,21 +958,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7272727272727273</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L11">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="M11">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -966,21 +984,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.7016949152542373</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L12">
-        <v>207</v>
+        <v>51</v>
       </c>
       <c r="M12">
-        <v>207</v>
+        <v>51</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -992,21 +1010,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>88</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.7012987012987013</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L13">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="M13">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1018,21 +1036,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.684931506849315</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1044,21 +1062,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.651685393258427</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L15">
-        <v>812</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>812</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1070,21 +1088,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>434</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6458333333333334</v>
+        <v>0.6452648475120385</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>804</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>804</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1096,47 +1114,47 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L17">
+        <v>45</v>
+      </c>
+      <c r="M17">
+        <v>45</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>25</v>
-      </c>
-      <c r="K17">
-        <v>0.625</v>
-      </c>
-      <c r="L17">
-        <v>40</v>
-      </c>
-      <c r="M17">
-        <v>40</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6197183098591549</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1148,21 +1166,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6153846153846154</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1174,21 +1192,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6140350877192983</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1200,21 +1218,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6031746031746031</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1226,21 +1244,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.6029411764705882</v>
+        <v>0.59375</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1252,21 +1270,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5748502994011976</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L23">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="M23">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1278,21 +1296,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5686274509803921</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1304,21 +1322,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5571428571428572</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1330,21 +1348,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5555555555555556</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1356,21 +1374,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L27">
         <v>35</v>
       </c>
-      <c r="K27">
-        <v>0.5542857142857143</v>
-      </c>
-      <c r="L27">
-        <v>97</v>
-      </c>
       <c r="M27">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1382,21 +1400,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.5542168674698795</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="L28">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M28">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1408,21 +1426,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>0.5288461538461539</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="L29">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="M29">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1434,21 +1452,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>0.5230769230769231</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1460,21 +1478,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>0.5213675213675214</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L31">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1486,21 +1504,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>0.4918032786885246</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1512,21 +1530,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>31</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>0.49</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="L33">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="M33">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1538,21 +1556,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>0.4605263157894737</v>
+        <v>0.47</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1564,21 +1582,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>0.4511278195488722</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L35">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M35">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1590,47 +1608,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="L36">
+        <v>32</v>
+      </c>
+      <c r="M36">
+        <v>32</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>44</v>
-      </c>
-      <c r="K36">
-        <v>0.4342105263157895</v>
-      </c>
-      <c r="L36">
-        <v>33</v>
-      </c>
-      <c r="M36">
-        <v>33</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>43</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>0.4320987654320987</v>
+        <v>0.3968871595330739</v>
       </c>
       <c r="L37">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="M37">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1642,21 +1660,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>46</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>0.4096385542168675</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L38">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="M38">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1668,21 +1686,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>98</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>0.4046692607003891</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="L39">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="M39">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1694,21 +1712,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>153</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>0.3963963963963964</v>
+        <v>0.3726027397260274</v>
       </c>
       <c r="L40">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="M40">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1720,21 +1738,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>67</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>0.3700980392156863</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L41">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="M41">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1746,21 +1764,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>257</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>0.363013698630137</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="L42">
-        <v>265</v>
+        <v>46</v>
       </c>
       <c r="M42">
-        <v>265</v>
+        <v>46</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1772,21 +1790,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>465</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>0.3513513513513514</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L43">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M43">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1798,21 +1816,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>0.316546762589928</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1824,21 +1842,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>0.3055555555555556</v>
+        <v>0.3205741626794258</v>
       </c>
       <c r="L45">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="M45">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1850,21 +1868,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>75</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>0.2913907284768212</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="L46">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M46">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1876,21 +1894,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K47">
-        <v>0.2871287128712871</v>
+        <v>0.269396551724138</v>
       </c>
       <c r="L47">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="M47">
-        <v>29</v>
+        <v>251</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1899,76 +1917,76 @@
         <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>72</v>
+        <v>678</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K48">
-        <v>0.2857142857142857</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="L48">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M48">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K49">
-        <v>0.2767857142857143</v>
+        <v>0.2516556291390729</v>
       </c>
       <c r="L49">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M49">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K50">
-        <v>0.2727272727272727</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="L50">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="M50">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1980,21 +1998,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>152</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K51">
-        <v>0.2572658772874058</v>
+        <v>0.2250639386189258</v>
       </c>
       <c r="L51">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="M51">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2006,21 +2024,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>690</v>
+        <v>606</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K52">
-        <v>0.2439024390243902</v>
+        <v>0.2225165562913907</v>
       </c>
       <c r="L52">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="M52">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2032,47 +2050,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>124</v>
+        <v>587</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K53">
-        <v>0.2281879194630873</v>
+        <v>0.2065217391304348</v>
       </c>
       <c r="L53">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="M53">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>115</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K54">
+        <v>0.1943573667711599</v>
+      </c>
+      <c r="L54">
         <v>62</v>
       </c>
-      <c r="K54">
-        <v>0.2251655629139073</v>
-      </c>
-      <c r="L54">
-        <v>170</v>
-      </c>
       <c r="M54">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2084,73 +2102,73 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>585</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K55">
-        <v>0.2074263764404609</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="L55">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="M55">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="N55">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>619</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K56">
-        <v>0.1974921630094044</v>
+        <v>0.1683168316831683</v>
       </c>
       <c r="L56">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="M56">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>256</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K57">
-        <v>0.1840490797546012</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="L57">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M57">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2162,21 +2180,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>133</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K58">
-        <v>0.1777777777777778</v>
+        <v>0.162962962962963</v>
       </c>
       <c r="L58">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M58">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N58">
         <v>0.98</v>
@@ -2188,21 +2206,21 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K59">
+        <v>0.1599045346062052</v>
+      </c>
+      <c r="L59">
         <v>67</v>
       </c>
-      <c r="K59">
-        <v>0.1757575757575758</v>
-      </c>
-      <c r="L59">
-        <v>29</v>
-      </c>
       <c r="M59">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2214,99 +2232,99 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>136</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K60">
-        <v>0.1756756756756757</v>
+        <v>0.1522727272727273</v>
       </c>
       <c r="L60">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M60">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N60">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>305</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K61">
-        <v>0.1746411483253588</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L61">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="M61">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="N61">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>345</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K62">
-        <v>0.1644736842105263</v>
+        <v>0.1476793248945148</v>
       </c>
       <c r="L62">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M62">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>381</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K63">
-        <v>0.1576354679802956</v>
+        <v>0.145985401459854</v>
       </c>
       <c r="L63">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="M63">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2318,41 +2336,41 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>171</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K64">
-        <v>0.1517241379310345</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L64">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M64">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N64">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K65">
-        <v>0.1444444444444444</v>
+        <v>0.1065573770491803</v>
       </c>
       <c r="L65">
         <v>39</v>
@@ -2370,151 +2388,151 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>231</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K66">
-        <v>0.1431818181818182</v>
+        <v>0.1</v>
       </c>
       <c r="L66">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="M66">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>377</v>
+        <v>963</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K67">
-        <v>0.138655462184874</v>
+        <v>0.08177905308464849</v>
       </c>
       <c r="L67">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="M67">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>205</v>
+        <v>640</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K68">
-        <v>0.124390243902439</v>
+        <v>0.075</v>
       </c>
       <c r="L68">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M68">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="N68">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O68">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>359</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K69">
-        <v>0.09289617486338798</v>
+        <v>0.07393715341959335</v>
       </c>
       <c r="L69">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M69">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>332</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K70">
-        <v>0.09269662921348315</v>
+        <v>0.07360406091370558</v>
       </c>
       <c r="L70">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="M70">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="N70">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>969</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K71">
-        <v>0.09195402298850575</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="L71">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M71">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N71">
         <v>0.97</v>
@@ -2526,85 +2544,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="72" spans="10:17">
-      <c r="J72" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K72">
-        <v>0.08184143222506395</v>
-      </c>
-      <c r="L72">
-        <v>32</v>
-      </c>
-      <c r="M72">
-        <v>35</v>
-      </c>
-      <c r="N72">
-        <v>0.91</v>
-      </c>
-      <c r="O72">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P72" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="73" spans="10:17">
-      <c r="J73" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K73">
-        <v>0.06602953953084274</v>
-      </c>
-      <c r="L73">
-        <v>76</v>
-      </c>
-      <c r="M73">
-        <v>82</v>
-      </c>
-      <c r="N73">
-        <v>0.93</v>
-      </c>
-      <c r="O73">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P73" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q73">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="74" spans="10:17">
-      <c r="J74" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K74">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="L74">
-        <v>30</v>
-      </c>
-      <c r="M74">
-        <v>32</v>
-      </c>
-      <c r="N74">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O74">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P74" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q74">
-        <v>510</v>
+        <v>1090</v>
       </c>
     </row>
   </sheetData>
